--- a/data/trans_orig/IP07A20-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A20-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0198E4B-CB6E-4362-BF22-2878B9DA4336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D3158B2-CF7E-4ACA-937B-4850F7188400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7941778C-8C92-4131-A255-D9BCB0682ED5}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E12113BD-BA5B-4235-9F80-B1499042CC65}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,13 +67,298 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
   </si>
   <si>
     <t>6,01%</t>
@@ -100,39 +385,6 @@
     <t>12,63%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>52,66%</t>
   </si>
   <si>
@@ -160,39 +412,6 @@
     <t>54,25%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>34,12%</t>
   </si>
   <si>
@@ -211,135 +430,168 @@
     <t>50,22%</t>
   </si>
   <si>
-    <t>37,86%</t>
-  </si>
-  <si>
     <t>33,02%</t>
   </si>
   <si>
     <t>42,83%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
     <t>13,66%</t>
   </si>
   <si>
@@ -367,24 +619,6 @@
     <t>16,42%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
     <t>51,13%</t>
   </si>
   <si>
@@ -412,24 +646,6 @@
     <t>55,53%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
     <t>25,6%</t>
   </si>
   <si>
@@ -454,220 +670,49 @@
     <t>42,88%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>13,04%</t>
@@ -697,33 +742,6 @@
     <t>12,76%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
     <t>46,92%</t>
   </si>
   <si>
@@ -751,24 +769,6 @@
     <t>48,65%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
     <t>36,91%</t>
   </si>
   <si>
@@ -799,6 +799,204 @@
     <t>Menores según frecuencia de llevarse bien con sus profesores en 2012 (Tasa respuesta: 44,74%)</t>
   </si>
   <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
     <t>6,81%</t>
   </si>
   <si>
@@ -817,30 +1015,6 @@
     <t>6,0%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
     <t>36,55%</t>
   </si>
   <si>
@@ -865,21 +1039,6 @@
     <t>39,72%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
     <t>53,57%</t>
   </si>
   <si>
@@ -904,91 +1063,139 @@
     <t>51,85%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
   </si>
   <si>
     <t>9,19%</t>
@@ -1018,21 +1225,6 @@
     <t>12,53%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
     <t>29,43%</t>
   </si>
   <si>
@@ -1060,30 +1252,12 @@
     <t>39,36%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
     <t>58,1%</t>
   </si>
   <si>
     <t>49,47%</t>
   </si>
   <si>
-    <t>66,29%</t>
-  </si>
-  <si>
     <t>53,09%</t>
   </si>
   <si>
@@ -1102,178 +1276,43 @@
     <t>61,67%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
   </si>
   <si>
     <t>6,16%</t>
@@ -1297,24 +1336,6 @@
     <t>7,77%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
     <t>32,94%</t>
   </si>
   <si>
@@ -1339,27 +1360,6 @@
     <t>36,34%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
     <t>57,79%</t>
   </si>
   <si>
@@ -1387,6 +1387,201 @@
     <t>Menores según frecuencia de llevarse bien con sus profesores en 2015 (Tasa respuesta: 47,08%)</t>
   </si>
   <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
     <t>6,34%</t>
   </si>
   <si>
@@ -1411,24 +1606,6 @@
     <t>12,83%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
     <t>33,04%</t>
   </si>
   <si>
@@ -1450,12 +1627,6 @@
     <t>43,05%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
     <t>50,27%</t>
   </si>
   <si>
@@ -1480,97 +1651,127 @@
     <t>56,49%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>9,33%</t>
@@ -1591,21 +1792,6 @@
     <t>10,85%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
     <t>35,17%</t>
   </si>
   <si>
@@ -1633,21 +1819,6 @@
     <t>44,09%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
     <t>53,37%</t>
   </si>
   <si>
@@ -1675,175 +1846,37 @@
     <t>59,02%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>8,25%</t>
@@ -1873,21 +1906,6 @@
     <t>10,16%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
     <t>32,6%</t>
   </si>
   <si>
@@ -1910,24 +1928,6 @@
   </si>
   <si>
     <t>40,06%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
   </si>
   <si>
     <t>52,82%</t>
@@ -2346,7 +2346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0199EFA-467C-4B5E-AC9A-0BCBD51669C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EDC602-29E4-4D0B-BB6C-1444DBA8CDDF}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2464,10 +2464,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>9918</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2479,238 +2479,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="7">
-        <v>8845</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>29</v>
-      </c>
-      <c r="N4" s="7">
-        <v>18764</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>812</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>770</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3201</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1581</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1974</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>8</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5175</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1846</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1421</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="7">
+        <v>5</v>
+      </c>
+      <c r="N6" s="7">
+        <v>3267</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>80</v>
-      </c>
-      <c r="D6" s="7">
-        <v>52256</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="7">
-        <v>76</v>
-      </c>
-      <c r="I6" s="7">
-        <v>47926</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="7">
-        <v>156</v>
-      </c>
-      <c r="N6" s="7">
-        <v>100182</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6607</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="7">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7">
+        <v>7149</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="7">
+        <v>17</v>
+      </c>
+      <c r="N7" s="7">
+        <v>13755</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2582</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="7">
-        <v>4</v>
-      </c>
-      <c r="N7" s="7">
-        <v>2582</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="7">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4552</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="7">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5698</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="7">
+        <v>13</v>
+      </c>
+      <c r="N8" s="7">
+        <v>10249</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="7">
+      <c r="Q8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="D8" s="7">
-        <v>33860</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="7">
-        <v>68</v>
-      </c>
-      <c r="I8" s="7">
-        <v>43320</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="7">
-        <v>119</v>
-      </c>
-      <c r="N8" s="7">
-        <v>77180</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,108 +2719,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>99235</v>
+        <v>13816</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>104646</v>
+        <v>15037</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
-        <v>316</v>
+        <v>37</v>
       </c>
       <c r="N9" s="7">
-        <v>203882</v>
+        <v>28853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>10876</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>4649</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>15525</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>4</v>
@@ -2829,13 +2829,13 @@
         <v>2524</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2844,13 +2844,13 @@
         <v>1362</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2859,121 +2859,121 @@
         <v>3886</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7">
-        <v>27234</v>
+        <v>10876</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>18022</v>
+        <v>4649</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="M12" s="7">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="N12" s="7">
-        <v>45255</v>
+        <v>15525</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>27234</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>18022</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>45255</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7">
         <v>38</v>
@@ -2982,13 +2982,13 @@
         <v>24761</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
@@ -2997,13 +2997,13 @@
         <v>24947</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -3012,13 +3012,13 @@
         <v>49708</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +3033,13 @@
         <v>65396</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -3048,13 +3048,13 @@
         <v>48979</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
         <v>173</v>
@@ -3063,270 +3063,270 @@
         <v>114375</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>13461</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>9720</v>
+        <v>2582</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>23181</v>
+        <v>2582</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>1514</v>
+        <v>3201</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>709</v>
+        <v>1974</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>2224</v>
+        <v>5175</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>50385</v>
+        <v>9918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H18" s="7">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>42190</v>
+        <v>8845</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="M18" s="7">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="N18" s="7">
-        <v>92575</v>
+        <v>18764</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D19" s="7">
-        <v>644</v>
+        <v>52256</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="I19" s="7">
-        <v>683</v>
+        <v>47926</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="N19" s="7">
-        <v>1327</v>
+        <v>100182</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D20" s="7">
-        <v>32543</v>
+        <v>33860</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="7">
+        <v>68</v>
+      </c>
+      <c r="I20" s="7">
+        <v>43320</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M20" s="7">
+        <v>119</v>
+      </c>
+      <c r="N20" s="7">
+        <v>77180</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="H20" s="7">
-        <v>48</v>
-      </c>
-      <c r="I20" s="7">
-        <v>36463</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M20" s="7">
-        <v>94</v>
-      </c>
-      <c r="N20" s="7">
-        <v>69006</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,252 +3335,252 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D21" s="7">
-        <v>98547</v>
+        <v>99235</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="I21" s="7">
-        <v>89766</v>
+        <v>104646</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="N21" s="7">
-        <v>188313</v>
+        <v>203882</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1846</v>
+        <v>719</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1421</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>3267</v>
+        <v>719</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>812</v>
+        <v>1352</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>770</v>
+        <v>1094</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>1581</v>
+        <v>2446</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7">
-        <v>6607</v>
+        <v>8653</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H24" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>7149</v>
+        <v>2369</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
       </c>
       <c r="N24" s="7">
-        <v>13755</v>
+        <v>11023</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>24580</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>23521</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>48101</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>161</v>
@@ -3589,13 +3589,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D26" s="7">
-        <v>4552</v>
+        <v>30991</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>162</v>
@@ -3607,10 +3607,10 @@
         <v>164</v>
       </c>
       <c r="H26" s="7">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="I26" s="7">
-        <v>5698</v>
+        <v>33439</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>165</v>
@@ -3622,10 +3622,10 @@
         <v>167</v>
       </c>
       <c r="M26" s="7">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="N26" s="7">
-        <v>10249</v>
+        <v>64430</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>168</v>
@@ -3643,49 +3643,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>13816</v>
+        <v>66295</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="I27" s="7">
-        <v>15037</v>
+        <v>60424</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="N27" s="7">
-        <v>28853</v>
+        <v>126719</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,217 +3696,217 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>8653</v>
+        <v>644</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>173</v>
       </c>
       <c r="H28" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
-        <v>2369</v>
+        <v>683</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>2</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1327</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M28" s="7">
-        <v>17</v>
-      </c>
-      <c r="N28" s="7">
-        <v>11023</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>1352</v>
+        <v>1514</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>709</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>3</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2224</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H29" s="7">
-        <v>2</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1094</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="M29" s="7">
-        <v>4</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2446</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D30" s="7">
-        <v>24580</v>
+        <v>13461</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H30" s="7">
+        <v>13</v>
+      </c>
+      <c r="I30" s="7">
+        <v>9720</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H30" s="7">
-        <v>39</v>
-      </c>
-      <c r="I30" s="7">
-        <v>23521</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>33</v>
+      </c>
+      <c r="N30" s="7">
+        <v>23181</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="M30" s="7">
-        <v>78</v>
-      </c>
-      <c r="N30" s="7">
-        <v>48101</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D31" s="7">
-        <v>719</v>
+        <v>50385</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" s="7">
+        <v>54</v>
+      </c>
+      <c r="I31" s="7">
+        <v>42190</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>198</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="N31" s="7">
-        <v>719</v>
+        <v>92575</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>199</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D32" s="7">
-        <v>30991</v>
+        <v>32543</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>202</v>
@@ -3915,10 +3915,10 @@
         <v>203</v>
       </c>
       <c r="H32" s="7">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I32" s="7">
-        <v>33439</v>
+        <v>36463</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>204</v>
@@ -3930,10 +3930,10 @@
         <v>206</v>
       </c>
       <c r="M32" s="7">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N32" s="7">
-        <v>64430</v>
+        <v>69006</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>207</v>
@@ -3951,49 +3951,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D33" s="7">
-        <v>66295</v>
+        <v>98547</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H33" s="7">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="I33" s="7">
-        <v>60424</v>
+        <v>89766</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M33" s="7">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="N33" s="7">
-        <v>126719</v>
+        <v>188313</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,55 +4004,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>44755</v>
+        <v>1363</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>210</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>5</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3266</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H34" s="7">
-        <v>40</v>
-      </c>
-      <c r="I34" s="7">
-        <v>27004</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>7</v>
+      </c>
+      <c r="N34" s="7">
+        <v>4629</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="M34" s="7">
-        <v>108</v>
-      </c>
-      <c r="N34" s="7">
-        <v>71760</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>14</v>
@@ -4061,13 +4061,13 @@
         <v>9403</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -4076,13 +4076,13 @@
         <v>5909</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M35" s="7">
         <v>23</v>
@@ -4091,109 +4091,109 @@
         <v>15312</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C36" s="7">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="D36" s="7">
-        <v>161061</v>
+        <v>44755</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H36" s="7">
+        <v>40</v>
+      </c>
+      <c r="I36" s="7">
+        <v>27004</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="H36" s="7">
-        <v>205</v>
-      </c>
-      <c r="I36" s="7">
-        <v>138807</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>108</v>
+      </c>
+      <c r="N36" s="7">
+        <v>71760</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="M36" s="7">
-        <v>447</v>
-      </c>
-      <c r="N36" s="7">
-        <v>299869</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>242</v>
       </c>
       <c r="D37" s="7">
-        <v>1363</v>
+        <v>161061</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H37" s="7">
+        <v>205</v>
+      </c>
+      <c r="I37" s="7">
+        <v>138807</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H37" s="7">
-        <v>5</v>
-      </c>
-      <c r="I37" s="7">
-        <v>3266</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>447</v>
+      </c>
+      <c r="N37" s="7">
+        <v>299869</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="M37" s="7">
-        <v>7</v>
-      </c>
-      <c r="N37" s="7">
-        <v>4629</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>241</v>
@@ -4205,7 +4205,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C38" s="7">
         <v>190</v>
@@ -4265,13 +4265,13 @@
         <v>343289</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H39" s="7">
         <v>473</v>
@@ -4280,13 +4280,13 @@
         <v>318853</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M39" s="7">
         <v>989</v>
@@ -4295,13 +4295,13 @@
         <v>662142</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4322,7 +4322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7773AA9-2086-4870-83AD-B7354D49E511}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9D9AF9-AE8D-4563-8762-8EDA209A28EB}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4440,253 +4440,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6578</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="H4" s="7">
-        <v>8</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5124</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M4" s="7">
-        <v>18</v>
-      </c>
-      <c r="N4" s="7">
-        <v>11702</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>2173</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>2848</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>35284</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="H6" s="7">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>31986</v>
+        <v>1539</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M6" s="7">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>67269</v>
+        <v>1539</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>787</v>
+        <v>4214</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>609</v>
+        <v>4449</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>1396</v>
+        <v>8663</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>51712</v>
+        <v>10276</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="H8" s="7">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>60048</v>
+        <v>5954</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="M8" s="7">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>111760</v>
+        <v>16231</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>95</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,108 +4695,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>96533</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>98442</v>
+        <v>11943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
-        <v>293</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>194975</v>
+        <v>26433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1467</v>
+        <v>682</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2566</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>4032</v>
+        <v>683</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>291</v>
+        <v>102</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -4805,13 +4805,13 @@
         <v>679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4820,13 +4820,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4835,121 +4835,121 @@
         <v>679</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>20770</v>
+        <v>1467</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="H12" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>15974</v>
+        <v>2566</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>300</v>
+        <v>106</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>301</v>
+        <v>211</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="M12" s="7">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>36744</v>
+        <v>4032</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>682</v>
+        <v>20770</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13" s="7">
+        <v>23</v>
+      </c>
+      <c r="I13" s="7">
+        <v>15974</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M13" s="7">
+        <v>54</v>
+      </c>
+      <c r="N13" s="7">
+        <v>36744</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>683</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7">
         <v>50</v>
@@ -4958,13 +4958,13 @@
         <v>34576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -4973,13 +4973,13 @@
         <v>35143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>99</v>
@@ -4988,13 +4988,13 @@
         <v>69719</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5009,13 @@
         <v>58174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
         <v>75</v>
@@ -5024,13 +5024,13 @@
         <v>53683</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
         <v>160</v>
@@ -5039,270 +5039,270 @@
         <v>111857</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>787</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="7">
-        <v>8499</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>318</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>6865</v>
+        <v>609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>321</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>15364</v>
+        <v>1396</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>324</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>2339</v>
+        <v>2173</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1826</v>
+        <v>675</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>4165</v>
+        <v>2848</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>223</v>
+        <v>317</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C18" s="7">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>27221</v>
+        <v>6578</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>332</v>
+        <v>61</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="H18" s="7">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>34151</v>
+        <v>5124</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="M18" s="7">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="N18" s="7">
-        <v>61372</v>
+        <v>11702</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>338</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>339</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>691</v>
+        <v>35284</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>326</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>31986</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>329</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>342</v>
+        <v>249</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="N19" s="7">
-        <v>691</v>
+        <v>67269</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>331</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D20" s="7">
-        <v>53732</v>
+        <v>51712</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="H20" s="7">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="I20" s="7">
-        <v>48486</v>
+        <v>60048</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="M20" s="7">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="N20" s="7">
-        <v>102218</v>
+        <v>111760</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>353</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,306 +5311,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D21" s="7">
-        <v>92483</v>
+        <v>96533</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="I21" s="7">
-        <v>91327</v>
+        <v>98442</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="N21" s="7">
-        <v>183810</v>
+        <v>194975</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>1778</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>1539</v>
+        <v>1335</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N22" s="7">
-        <v>1539</v>
+        <v>3113</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>346</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>41</v>
+        <v>347</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>41</v>
+        <v>349</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>354</v>
+        <v>103</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1838</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>359</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>4214</v>
+        <v>3873</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>362</v>
+        <v>29</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>4449</v>
+        <v>3793</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="M24" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N24" s="7">
-        <v>8663</v>
+        <v>7666</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>368</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>21601</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>41</v>
+        <v>358</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>42</v>
+        <v>359</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>20325</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>41</v>
+        <v>361</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>41926</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>41</v>
+        <v>364</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>42</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D26" s="7">
-        <v>10276</v>
+        <v>41112</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>62</v>
+      </c>
+      <c r="I26" s="7">
+        <v>40393</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H26" s="7">
-        <v>7</v>
-      </c>
-      <c r="I26" s="7">
-        <v>5954</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>126</v>
+      </c>
+      <c r="N26" s="7">
+        <v>81505</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="M26" s="7">
-        <v>18</v>
-      </c>
-      <c r="N26" s="7">
-        <v>16231</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,49 +5619,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>69524</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I27" s="7">
-        <v>11943</v>
+        <v>66524</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N27" s="7">
-        <v>26433</v>
+        <v>136048</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,193 +5672,193 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>3873</v>
+        <v>691</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>691</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" s="7">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7">
-        <v>3793</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="M28" s="7">
-        <v>12</v>
-      </c>
-      <c r="N28" s="7">
-        <v>7666</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2339</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H29" s="7">
         <v>2</v>
       </c>
-      <c r="D29" s="7">
-        <v>1160</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="I29" s="7">
+        <v>1826</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="M29" s="7">
+        <v>5</v>
+      </c>
+      <c r="N29" s="7">
+        <v>4165</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
-      <c r="I29" s="7">
-        <v>678</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="M29" s="7">
-        <v>3</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1838</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D30" s="7">
-        <v>21601</v>
+        <v>8499</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>9</v>
+      </c>
+      <c r="I30" s="7">
+        <v>6865</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="H30" s="7">
-        <v>31</v>
-      </c>
-      <c r="I30" s="7">
-        <v>20325</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>20</v>
+      </c>
+      <c r="N30" s="7">
+        <v>15364</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="M30" s="7">
-        <v>66</v>
-      </c>
-      <c r="N30" s="7">
-        <v>41926</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D31" s="7">
-        <v>1778</v>
+        <v>27221</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>44</v>
+      </c>
+      <c r="I31" s="7">
+        <v>34151</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="H31" s="7">
-        <v>2</v>
-      </c>
-      <c r="I31" s="7">
-        <v>1335</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>400</v>
       </c>
       <c r="M31" s="7">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="N31" s="7">
-        <v>3113</v>
+        <v>61372</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>401</v>
@@ -5873,13 +5873,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D32" s="7">
-        <v>41112</v>
+        <v>53732</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>404</v>
@@ -5888,37 +5888,37 @@
         <v>405</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="H32" s="7">
         <v>62</v>
       </c>
       <c r="I32" s="7">
-        <v>40393</v>
+        <v>48486</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>137</v>
+      </c>
+      <c r="N32" s="7">
+        <v>102218</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="M32" s="7">
-        <v>126</v>
-      </c>
-      <c r="N32" s="7">
-        <v>81505</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,49 +5927,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D33" s="7">
-        <v>69524</v>
+        <v>92483</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H33" s="7">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="I33" s="7">
-        <v>66524</v>
+        <v>91327</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M33" s="7">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="N33" s="7">
-        <v>136048</v>
+        <v>183810</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,46 +5980,46 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D34" s="7">
-        <v>20417</v>
+        <v>3938</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>412</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1943</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="7">
-        <v>28</v>
-      </c>
-      <c r="I34" s="7">
-        <v>19887</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>9</v>
+      </c>
+      <c r="N34" s="7">
+        <v>5882</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="M34" s="7">
-        <v>57</v>
-      </c>
-      <c r="N34" s="7">
-        <v>40304</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>418</v>
@@ -6028,7 +6028,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>9</v>
@@ -6037,7 +6037,7 @@
         <v>6351</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>419</v>
@@ -6052,7 +6052,7 @@
         <v>3179</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>421</v>
@@ -6067,7 +6067,7 @@
         <v>9530</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>423</v>
@@ -6079,13 +6079,13 @@
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C36" s="7">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="D36" s="7">
-        <v>109090</v>
+        <v>20417</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>425</v>
@@ -6094,79 +6094,79 @@
         <v>426</v>
       </c>
       <c r="G36" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" s="7">
+        <v>28</v>
+      </c>
+      <c r="I36" s="7">
+        <v>19887</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="H36" s="7">
-        <v>152</v>
-      </c>
-      <c r="I36" s="7">
-        <v>106885</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="L36" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="M36" s="7">
-        <v>313</v>
+        <v>57</v>
       </c>
       <c r="N36" s="7">
-        <v>215975</v>
+        <v>40304</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>430</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C37" s="7">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="D37" s="7">
-        <v>3938</v>
+        <v>109090</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>386</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>89</v>
+        <v>434</v>
       </c>
       <c r="H37" s="7">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="I37" s="7">
-        <v>1943</v>
+        <v>106885</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>436</v>
+        <v>46</v>
       </c>
       <c r="M37" s="7">
-        <v>9</v>
+        <v>313</v>
       </c>
       <c r="N37" s="7">
-        <v>5882</v>
+        <v>215975</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>437</v>
@@ -6181,7 +6181,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C38" s="7">
         <v>277</v>
@@ -6193,7 +6193,7 @@
         <v>440</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>441</v>
@@ -6241,13 +6241,13 @@
         <v>331204</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H39" s="7">
         <v>457</v>
@@ -6256,13 +6256,13 @@
         <v>321919</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M39" s="7">
         <v>939</v>
@@ -6271,13 +6271,13 @@
         <v>653123</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -6298,7 +6298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C43B22-B2A4-4142-86C9-B822F88CED3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0A0672-94A1-4402-961C-3EC4CD471B8B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6416,253 +6416,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6743</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="H4" s="7">
-        <v>21</v>
-      </c>
-      <c r="I4" s="7">
-        <v>13145</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="M4" s="7">
-        <v>30</v>
-      </c>
-      <c r="N4" s="7">
-        <v>19888</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>2847</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>457</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>46</v>
+        <v>449</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>458</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>3625</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>460</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>461</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>43282</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>463</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>37</v>
+        <v>449</v>
       </c>
       <c r="H6" s="7">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>36697</v>
+        <v>2843</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="M6" s="7">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>79978</v>
+        <v>2843</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>5571</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>458</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>459</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>993</v>
+        <v>3828</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>462</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>463</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>993</v>
+        <v>9400</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>465</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>53455</v>
+        <v>8743</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7255</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="M8" s="7">
+        <v>18</v>
+      </c>
+      <c r="N8" s="7">
+        <v>15998</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="H8" s="7">
-        <v>82</v>
-      </c>
-      <c r="I8" s="7">
-        <v>55017</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="M8" s="7">
-        <v>159</v>
-      </c>
-      <c r="N8" s="7">
-        <v>108471</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,108 +6671,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7">
-        <v>106326</v>
+        <v>14314</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>106630</v>
+        <v>13926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
-        <v>315</v>
+        <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>212955</v>
+        <v>28240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>5631</v>
+        <v>2103</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>475</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2103</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3371</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="M10" s="7">
-        <v>12</v>
-      </c>
-      <c r="N10" s="7">
-        <v>9003</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -6781,13 +6781,13 @@
         <v>750</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6796,10 +6796,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>422</v>
@@ -6811,121 +6811,121 @@
         <v>750</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>25612</v>
+        <v>5631</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3371</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="M12" s="7">
+        <v>12</v>
+      </c>
+      <c r="N12" s="7">
+        <v>9003</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="P12" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>23057</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="M12" s="7">
-        <v>66</v>
-      </c>
-      <c r="N12" s="7">
-        <v>48670</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>2103</v>
+        <v>25612</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="H13" s="7">
+        <v>33</v>
+      </c>
+      <c r="I13" s="7">
+        <v>23057</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="M13" s="7">
+        <v>66</v>
+      </c>
+      <c r="N13" s="7">
+        <v>48670</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2103</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7">
         <v>32</v>
@@ -6934,13 +6934,13 @@
         <v>24490</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -6949,13 +6949,13 @@
         <v>29642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
@@ -6964,13 +6964,13 @@
         <v>54133</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6985,13 +6985,13 @@
         <v>58587</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -7000,13 +7000,13 @@
         <v>56071</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
         <v>156</v>
@@ -7015,270 +7015,270 @@
         <v>114659</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>9465</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>511</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>330</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>5896</v>
+        <v>993</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>419</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>513</v>
+        <v>144</v>
       </c>
       <c r="M16" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>15361</v>
+        <v>993</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>514</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>515</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>1481</v>
+        <v>2847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>509</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>517</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>583</v>
+        <v>778</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>2064</v>
+        <v>3625</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>511</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="7">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6743</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="H18" s="7">
+        <v>21</v>
+      </c>
+      <c r="I18" s="7">
+        <v>13145</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="M18" s="7">
         <v>30</v>
       </c>
-      <c r="C18" s="7">
-        <v>49</v>
-      </c>
-      <c r="D18" s="7">
-        <v>35677</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="H18" s="7">
-        <v>58</v>
-      </c>
-      <c r="I18" s="7">
-        <v>43896</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="M18" s="7">
-        <v>107</v>
-      </c>
       <c r="N18" s="7">
-        <v>79573</v>
+        <v>19888</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>528</v>
+        <v>149</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D19" s="7">
-        <v>670</v>
+        <v>43282</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>531</v>
+        <v>203</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>522</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>532</v>
+        <v>121</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="I19" s="7">
-        <v>628</v>
+        <v>36697</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>524</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="N19" s="7">
-        <v>1298</v>
+        <v>79978</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>277</v>
+        <v>526</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>527</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D20" s="7">
-        <v>54136</v>
+        <v>53455</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="H20" s="7">
+        <v>82</v>
+      </c>
+      <c r="I20" s="7">
+        <v>55017</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="M20" s="7">
+        <v>159</v>
+      </c>
+      <c r="N20" s="7">
+        <v>108471</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="H20" s="7">
-        <v>73</v>
-      </c>
-      <c r="I20" s="7">
-        <v>56588</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="M20" s="7">
-        <v>145</v>
-      </c>
-      <c r="N20" s="7">
-        <v>110724</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,108 +7287,108 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D21" s="7">
-        <v>101429</v>
+        <v>106326</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="I21" s="7">
-        <v>107592</v>
+        <v>106630</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="N21" s="7">
-        <v>209021</v>
+        <v>212955</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>700</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>0</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="H22" s="7">
-        <v>3</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2843</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>546</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>547</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>2843</v>
+        <v>700</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>549</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>550</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -7397,13 +7397,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7412,13 +7412,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7427,166 +7427,166 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>553</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C24" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>5571</v>
+        <v>7727</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>3828</v>
+        <v>5816</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="M24" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N24" s="7">
-        <v>9400</v>
+        <v>13543</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="7">
+        <v>27</v>
+      </c>
+      <c r="D25" s="7">
+        <v>20924</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="H25" s="7">
         <v>40</v>
       </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>26260</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>41</v>
+        <v>553</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>554</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>47184</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>41</v>
+        <v>556</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>42</v>
+        <v>557</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D26" s="7">
-        <v>8743</v>
+        <v>48592</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="H26" s="7">
+        <v>62</v>
+      </c>
+      <c r="I26" s="7">
+        <v>39634</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>132</v>
+      </c>
+      <c r="N26" s="7">
+        <v>88226</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="H26" s="7">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7">
-        <v>7255</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="M26" s="7">
-        <v>18</v>
-      </c>
-      <c r="N26" s="7">
-        <v>15998</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,49 +7595,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14314</v>
+        <v>77943</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="I27" s="7">
-        <v>13926</v>
+        <v>71710</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="N27" s="7">
-        <v>28240</v>
+        <v>149653</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7648,199 +7648,199 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>670</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="7">
-        <v>7727</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="G28" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>628</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>2</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1298</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="H28" s="7">
-        <v>9</v>
-      </c>
-      <c r="I28" s="7">
-        <v>5816</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="M28" s="7">
-        <v>20</v>
-      </c>
-      <c r="N28" s="7">
-        <v>13543</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>1481</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>41</v>
+        <v>574</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>2064</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>42</v>
+        <v>576</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>402</v>
+        <v>577</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C30" s="7">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D30" s="7">
-        <v>20924</v>
+        <v>9465</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="H30" s="7">
+        <v>8</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5896</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="M30" s="7">
+        <v>21</v>
+      </c>
+      <c r="N30" s="7">
+        <v>15361</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="H30" s="7">
-        <v>40</v>
-      </c>
-      <c r="I30" s="7">
-        <v>26260</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="M30" s="7">
-        <v>67</v>
-      </c>
-      <c r="N30" s="7">
-        <v>47184</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D31" s="7">
-        <v>700</v>
+        <v>35677</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>437</v>
+        <v>584</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>41</v>
+        <v>585</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="H31" s="7">
+        <v>58</v>
+      </c>
+      <c r="I31" s="7">
+        <v>43896</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="M31" s="7">
+        <v>107</v>
+      </c>
+      <c r="N31" s="7">
+        <v>79573</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="M31" s="7">
-        <v>1</v>
-      </c>
-      <c r="N31" s="7">
-        <v>700</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>592</v>
@@ -7849,13 +7849,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D32" s="7">
-        <v>48592</v>
+        <v>54136</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>593</v>
@@ -7867,10 +7867,10 @@
         <v>595</v>
       </c>
       <c r="H32" s="7">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="I32" s="7">
-        <v>39634</v>
+        <v>56588</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>596</v>
@@ -7882,10 +7882,10 @@
         <v>598</v>
       </c>
       <c r="M32" s="7">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="N32" s="7">
-        <v>88226</v>
+        <v>110724</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>599</v>
@@ -7903,49 +7903,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D33" s="7">
-        <v>77943</v>
+        <v>101429</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H33" s="7">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I33" s="7">
-        <v>71710</v>
+        <v>107592</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M33" s="7">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="N33" s="7">
-        <v>149653</v>
+        <v>209021</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7956,55 +7956,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D34" s="7">
-        <v>29567</v>
+        <v>3473</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1621</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="H34" s="7">
-        <v>46</v>
-      </c>
-      <c r="I34" s="7">
-        <v>31070</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>7</v>
+      </c>
+      <c r="N34" s="7">
+        <v>5094</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="M34" s="7">
-        <v>86</v>
-      </c>
-      <c r="N34" s="7">
-        <v>60638</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>7</v>
@@ -8013,13 +8013,13 @@
         <v>5078</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -8028,13 +8028,13 @@
         <v>1361</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="M35" s="7">
         <v>9</v>
@@ -8043,106 +8043,106 @@
         <v>6439</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C36" s="7">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="D36" s="7">
-        <v>131066</v>
+        <v>29567</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>267</v>
+        <v>613</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="H36" s="7">
+        <v>46</v>
+      </c>
+      <c r="I36" s="7">
+        <v>31070</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="H36" s="7">
-        <v>192</v>
-      </c>
-      <c r="I36" s="7">
-        <v>133739</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>86</v>
+      </c>
+      <c r="N36" s="7">
+        <v>60638</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="M36" s="7">
-        <v>371</v>
-      </c>
-      <c r="N36" s="7">
-        <v>264805</v>
-      </c>
-      <c r="O36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C37" s="7">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="D37" s="7">
-        <v>3473</v>
+        <v>131066</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>28</v>
+        <v>325</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>343</v>
+        <v>622</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="H37" s="7">
+        <v>192</v>
+      </c>
+      <c r="I37" s="7">
+        <v>133739</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1621</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>626</v>
       </c>
       <c r="M37" s="7">
-        <v>7</v>
+        <v>371</v>
       </c>
       <c r="N37" s="7">
-        <v>5094</v>
+        <v>264805</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>627</v>
@@ -8157,7 +8157,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C38" s="7">
         <v>261</v>
@@ -8217,13 +8217,13 @@
         <v>358600</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H39" s="7">
         <v>509</v>
@@ -8232,13 +8232,13 @@
         <v>355928</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M39" s="7">
         <v>1001</v>
@@ -8247,13 +8247,13 @@
         <v>714528</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A20-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A20-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D3158B2-CF7E-4ACA-937B-4850F7188400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4DE0C47-F543-49C3-BBBF-209878195972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E12113BD-BA5B-4235-9F80-B1499042CC65}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E380370B-2E0B-4EC9-9B8D-40D8B80B4B72}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="646">
   <si>
     <t>Menores según frecuencia de llevarse bien con sus profesores en 2007 (Tasa respuesta: 47,01%)</t>
   </si>
@@ -70,12 +70,120 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -88,1873 +196,1786 @@
     <t>5,03%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>32,95%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con sus profesores en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
   </si>
   <si>
     <t>14,2%</t>
   </si>
   <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con sus profesores en 2015 (Tasa respuesta: 47,08%)</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con sus profesores en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con sus profesores en 2015 (Tasa respuesta: 47,08%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>2,13%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
     <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +1986,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2061,39 +2082,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2145,7 +2166,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2256,13 +2277,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2271,6 +2285,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2335,19 +2356,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EDC602-29E4-4D0B-BB6C-1444DBA8CDDF}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4004CCF8-6E3C-403D-B77A-66385C24CB33}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2464,10 +2505,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4552</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2479,91 +2520,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>5698</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>10249</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>812</v>
+        <v>6607</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7149</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>770</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
       <c r="N5" s="7">
-        <v>1581</v>
+        <v>13755</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -2572,13 +2613,13 @@
         <v>1846</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -2587,13 +2628,13 @@
         <v>1421</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -2602,112 +2643,112 @@
         <v>3267</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>6607</v>
+        <v>812</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>770</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="7">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7">
-        <v>7149</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>13755</v>
+        <v>1581</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>4552</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>5698</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="M8" s="7">
-        <v>13</v>
-      </c>
-      <c r="N8" s="7">
-        <v>10249</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>51</v>
@@ -2772,106 +2813,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>24761</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>24947</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>49708</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7">
-        <v>2524</v>
+        <v>27234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7">
-        <v>1362</v>
+        <v>18022</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="N11" s="7">
-        <v>3886</v>
+        <v>45255</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>17</v>
@@ -2880,13 +2921,13 @@
         <v>10876</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -2895,13 +2936,13 @@
         <v>4649</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -2910,115 +2951,115 @@
         <v>15525</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>27234</v>
+        <v>2524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>18022</v>
+        <v>1362</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>45255</v>
+        <v>3886</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>24761</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>24947</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>49708</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,49 +3115,49 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>33860</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="I16" s="7">
-        <v>2582</v>
+        <v>43320</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="N16" s="7">
-        <v>2582</v>
+        <v>77180</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>96</v>
@@ -3128,13 +3169,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="D17" s="7">
-        <v>3201</v>
+        <v>52256</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -3146,10 +3187,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="I17" s="7">
-        <v>1974</v>
+        <v>47926</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -3161,10 +3202,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="N17" s="7">
-        <v>5175</v>
+        <v>100182</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -3179,7 +3220,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>15</v>
@@ -3188,7 +3229,7 @@
         <v>9918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>107</v>
@@ -3230,13 +3271,13 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>52256</v>
+        <v>3201</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>115</v>
@@ -3248,10 +3289,10 @@
         <v>117</v>
       </c>
       <c r="H19" s="7">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>47926</v>
+        <v>1974</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>118</v>
@@ -3263,10 +3304,10 @@
         <v>120</v>
       </c>
       <c r="M19" s="7">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>100182</v>
+        <v>5175</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>121</v>
@@ -3281,52 +3322,52 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>33860</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2582</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="7">
-        <v>68</v>
-      </c>
-      <c r="I20" s="7">
-        <v>43320</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>4</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2582</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="M20" s="7">
-        <v>119</v>
-      </c>
-      <c r="N20" s="7">
-        <v>77180</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,112 +3423,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7">
-        <v>719</v>
+        <v>30991</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>54</v>
+      </c>
+      <c r="I22" s="7">
+        <v>33439</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="N22" s="7">
-        <v>719</v>
+        <v>64430</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D23" s="7">
-        <v>1352</v>
+        <v>24580</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="I23" s="7">
-        <v>1094</v>
+        <v>23521</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M23" s="7">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="N23" s="7">
-        <v>2446</v>
+        <v>48101</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>13</v>
@@ -3496,13 +3537,13 @@
         <v>8653</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -3511,13 +3552,13 @@
         <v>2369</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -3526,115 +3567,115 @@
         <v>11023</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>24580</v>
+        <v>1352</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>23521</v>
+        <v>1094</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>48101</v>
+        <v>2446</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>30991</v>
+        <v>719</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>33439</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>167</v>
       </c>
       <c r="M26" s="7">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>64430</v>
+        <v>719</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,112 +3731,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D28" s="7">
-        <v>644</v>
+        <v>32543</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>173</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="I28" s="7">
-        <v>683</v>
+        <v>36463</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="N28" s="7">
-        <v>1327</v>
+        <v>69006</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D29" s="7">
-        <v>1514</v>
+        <v>50385</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="I29" s="7">
-        <v>709</v>
+        <v>42190</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M29" s="7">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="N29" s="7">
-        <v>2224</v>
+        <v>92575</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>20</v>
@@ -3804,13 +3845,13 @@
         <v>13461</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -3819,13 +3860,13 @@
         <v>9720</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M30" s="7">
         <v>33</v>
@@ -3834,115 +3875,115 @@
         <v>23181</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>50385</v>
+        <v>1514</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H31" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>42190</v>
+        <v>709</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M31" s="7">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="N31" s="7">
-        <v>92575</v>
+        <v>2224</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>32543</v>
+        <v>644</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H32" s="7">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>36463</v>
+        <v>683</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>206</v>
       </c>
       <c r="M32" s="7">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>69006</v>
+        <v>1327</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>207</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,106 +4045,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="D34" s="7">
-        <v>1363</v>
+        <v>126706</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>211</v>
       </c>
       <c r="H34" s="7">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="I34" s="7">
-        <v>3266</v>
+        <v>143867</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>212</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M34" s="7">
-        <v>7</v>
+        <v>404</v>
       </c>
       <c r="N34" s="7">
-        <v>4629</v>
+        <v>270573</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="D35" s="7">
-        <v>9403</v>
+        <v>161061</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H35" s="7">
-        <v>9</v>
+        <v>205</v>
       </c>
       <c r="I35" s="7">
-        <v>5909</v>
+        <v>138807</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M35" s="7">
-        <v>23</v>
+        <v>447</v>
       </c>
       <c r="N35" s="7">
-        <v>15312</v>
+        <v>299869</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>68</v>
@@ -4112,13 +4153,13 @@
         <v>44755</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H36" s="7">
         <v>40</v>
@@ -4127,13 +4168,13 @@
         <v>27004</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M36" s="7">
         <v>108</v>
@@ -4142,115 +4183,115 @@
         <v>71760</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
+        <v>14</v>
+      </c>
+      <c r="D37" s="7">
+        <v>9403</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H37" s="7">
+        <v>9</v>
+      </c>
+      <c r="I37" s="7">
+        <v>5909</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M37" s="7">
+        <v>23</v>
+      </c>
+      <c r="N37" s="7">
+        <v>15312</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D37" s="7">
-        <v>161061</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H37" s="7">
-        <v>205</v>
-      </c>
-      <c r="I37" s="7">
-        <v>138807</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="M37" s="7">
-        <v>447</v>
-      </c>
-      <c r="N37" s="7">
-        <v>299869</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>126706</v>
+        <v>1363</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>244</v>
+        <v>35</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>245</v>
       </c>
       <c r="H38" s="7">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="I38" s="7">
-        <v>143867</v>
+        <v>3266</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>246</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>7</v>
+      </c>
+      <c r="N38" s="7">
+        <v>4629</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="M38" s="7">
-        <v>404</v>
-      </c>
-      <c r="N38" s="7">
-        <v>270573</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,6 +4343,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4322,8 +4368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9D9AF9-AE8D-4563-8762-8EDA209A28EB}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC4CBFC-6154-4B29-B961-40AEDC2269F9}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4339,7 +4385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4440,106 +4486,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>10276</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>5954</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>16231</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4214</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>4449</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>8663</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4548,13 +4594,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4563,13 +4609,13 @@
         <v>1539</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -4578,115 +4624,115 @@
         <v>1539</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>272</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>4214</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>259</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>4449</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>263</v>
+        <v>48</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>8663</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>266</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>10276</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>268</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>5954</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>271</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>272</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>16231</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,106 +4794,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>682</v>
+        <v>34576</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>278</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>35143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="N10" s="7">
-        <v>683</v>
+        <v>69719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>679</v>
+        <v>20770</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>15974</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="N11" s="7">
-        <v>679</v>
+        <v>36744</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>102</v>
+        <v>291</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>292</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -4856,13 +4902,13 @@
         <v>1467</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -4871,13 +4917,13 @@
         <v>2566</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4886,115 +4932,115 @@
         <v>4032</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>20770</v>
+        <v>679</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>15974</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>36744</v>
+        <v>679</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>34576</v>
+        <v>682</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H14" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>35143</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>69719</v>
+        <v>683</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>119</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,112 +5096,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>787</v>
+        <v>51712</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>307</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="I16" s="7">
-        <v>609</v>
+        <v>60048</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="N16" s="7">
-        <v>1396</v>
+        <v>111760</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D17" s="7">
-        <v>2173</v>
+        <v>35284</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="I17" s="7">
-        <v>675</v>
+        <v>31986</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="N17" s="7">
-        <v>2848</v>
+        <v>67269</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>10</v>
@@ -5164,13 +5210,13 @@
         <v>6578</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>61</v>
+        <v>324</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -5179,13 +5225,13 @@
         <v>5124</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -5194,115 +5240,115 @@
         <v>11702</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>185</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>35284</v>
+        <v>2173</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H19" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>31986</v>
+        <v>675</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>329</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>249</v>
+        <v>336</v>
       </c>
       <c r="M19" s="7">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>67269</v>
+        <v>2848</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>51712</v>
+        <v>787</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>334</v>
+        <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H20" s="7">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>60048</v>
+        <v>609</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>337</v>
+        <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M20" s="7">
-        <v>167</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>111760</v>
+        <v>1396</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>340</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>86</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,112 +5404,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="D22" s="7">
-        <v>1778</v>
+        <v>41112</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="I22" s="7">
-        <v>1335</v>
+        <v>40393</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M22" s="7">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="N22" s="7">
-        <v>3113</v>
+        <v>81505</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D23" s="7">
-        <v>1160</v>
+        <v>21601</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>355</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>103</v>
+        <v>356</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I23" s="7">
-        <v>678</v>
+        <v>20325</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>212</v>
+        <v>357</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>358</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="N23" s="7">
-        <v>1838</v>
+        <v>41926</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>211</v>
+        <v>360</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>6</v>
@@ -5472,13 +5518,13 @@
         <v>3873</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>353</v>
+        <v>241</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>29</v>
+        <v>364</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -5487,13 +5533,13 @@
         <v>3793</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -5502,115 +5548,115 @@
         <v>7666</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>27</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1160</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="7">
-        <v>21601</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="H25" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>20325</v>
+        <v>678</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>361</v>
+        <v>246</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>362</v>
+        <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="M25" s="7">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>41926</v>
+        <v>1838</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>41112</v>
+        <v>1778</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="H26" s="7">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>40393</v>
+        <v>1335</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>371</v>
+        <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="M26" s="7">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>81505</v>
+        <v>3113</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,112 +5712,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="D28" s="7">
-        <v>691</v>
+        <v>53732</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>385</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>48486</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>387</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>388</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="M28" s="7">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="N28" s="7">
-        <v>691</v>
+        <v>102218</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D29" s="7">
-        <v>2339</v>
+        <v>27221</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>312</v>
+        <v>393</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="I29" s="7">
-        <v>1826</v>
+        <v>34151</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>396</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="M29" s="7">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="N29" s="7">
-        <v>4165</v>
+        <v>61372</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>398</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>220</v>
+        <v>399</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>11</v>
@@ -5780,13 +5826,13 @@
         <v>8499</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -5795,13 +5841,13 @@
         <v>6865</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -5810,115 +5856,115 @@
         <v>15364</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>27221</v>
+        <v>2339</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="H31" s="7">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>34151</v>
+        <v>1826</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>399</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="M31" s="7">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="N31" s="7">
-        <v>61372</v>
+        <v>4165</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>402</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>403</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>53732</v>
+        <v>691</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>405</v>
+        <v>35</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="H32" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>48486</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>406</v>
+        <v>35</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>407</v>
+        <v>48</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="M32" s="7">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>102218</v>
+        <v>691</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>410</v>
+        <v>35</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,106 +6026,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>6</v>
+        <v>277</v>
       </c>
       <c r="D34" s="7">
-        <v>3938</v>
+        <v>191408</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>55</v>
+        <v>422</v>
       </c>
       <c r="H34" s="7">
-        <v>3</v>
+        <v>270</v>
       </c>
       <c r="I34" s="7">
-        <v>1943</v>
+        <v>190024</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="M34" s="7">
-        <v>9</v>
+        <v>547</v>
       </c>
       <c r="N34" s="7">
-        <v>5882</v>
+        <v>381433</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>418</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="D35" s="7">
-        <v>6351</v>
+        <v>109090</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>135</v>
+        <v>428</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="H35" s="7">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="I35" s="7">
-        <v>3179</v>
+        <v>106885</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>57</v>
+        <v>431</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="M35" s="7">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="N35" s="7">
-        <v>9530</v>
+        <v>215975</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>316</v>
+        <v>434</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>29</v>
@@ -6088,13 +6134,13 @@
         <v>20417</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>109</v>
+        <v>439</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
@@ -6103,13 +6149,13 @@
         <v>19887</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="M36" s="7">
         <v>57</v>
@@ -6118,115 +6164,115 @@
         <v>40304</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>110</v>
+        <v>443</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>431</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="D37" s="7">
-        <v>109090</v>
+        <v>6351</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>432</v>
+        <v>167</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H37" s="7">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="I37" s="7">
-        <v>106885</v>
+        <v>3179</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>435</v>
+        <v>122</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>46</v>
+        <v>447</v>
       </c>
       <c r="M37" s="7">
-        <v>313</v>
+        <v>13</v>
       </c>
       <c r="N37" s="7">
-        <v>215975</v>
+        <v>9530</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>438</v>
+        <v>200</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>439</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7">
-        <v>277</v>
+        <v>6</v>
       </c>
       <c r="D38" s="7">
-        <v>191408</v>
+        <v>3938</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="H38" s="7">
-        <v>270</v>
+        <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>190024</v>
+        <v>1943</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="M38" s="7">
-        <v>547</v>
+        <v>9</v>
       </c>
       <c r="N38" s="7">
-        <v>381433</v>
+        <v>5882</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,6 +6324,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -6298,8 +6349,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0A0672-94A1-4402-961C-3EC4CD471B8B}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9400BD1-2536-4AC8-B051-DDCE766F12E9}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6315,7 +6366,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6416,106 +6467,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8743</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>458</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>459</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>7255</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>462</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>15998</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>464</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>5571</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3828</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="M5" s="7">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>472</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>473</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -6524,13 +6575,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6539,13 +6590,13 @@
         <v>2843</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6554,115 +6605,115 @@
         <v>2843</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>5571</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>458</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>459</v>
+        <v>48</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>3828</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>461</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>462</v>
+        <v>48</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>464</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>465</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>8743</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>467</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>468</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>7255</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>470</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="M8" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>15998</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>472</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>473</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,106 +6775,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>2103</v>
+        <v>24490</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>476</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>29642</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>486</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>487</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="N10" s="7">
-        <v>2103</v>
+        <v>54133</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>750</v>
+        <v>25612</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>493</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>23057</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>495</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>496</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>422</v>
+        <v>497</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="N11" s="7">
-        <v>750</v>
+        <v>48670</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>498</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>7</v>
@@ -6832,13 +6883,13 @@
         <v>5631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>323</v>
+        <v>501</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -6847,13 +6898,13 @@
         <v>3371</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>107</v>
+        <v>504</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>311</v>
+        <v>414</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -6862,115 +6913,115 @@
         <v>9003</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>428</v>
+        <v>507</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>25612</v>
+        <v>750</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>490</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>23057</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>492</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>493</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="M13" s="7">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>48670</v>
+        <v>750</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>495</v>
+        <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>496</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>24490</v>
+        <v>2103</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>498</v>
+        <v>445</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>29642</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>501</v>
+        <v>35</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>502</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="M14" s="7">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>54133</v>
+        <v>2103</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>506</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,112 +7077,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>53455</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>517</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>498</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="I16" s="7">
-        <v>993</v>
+        <v>55017</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>144</v>
+        <v>520</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="N16" s="7">
-        <v>993</v>
+        <v>108471</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>521</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>522</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="D17" s="7">
-        <v>2847</v>
+        <v>43282</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>525</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>526</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="I17" s="7">
-        <v>778</v>
+        <v>36697</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>528</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="N17" s="7">
-        <v>3625</v>
+        <v>79978</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>9</v>
@@ -7140,13 +7191,13 @@
         <v>6743</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -7155,13 +7206,13 @@
         <v>13145</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -7170,115 +7221,115 @@
         <v>19888</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>149</v>
+        <v>539</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>43282</v>
+        <v>2847</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>542</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>522</v>
+        <v>335</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>543</v>
       </c>
       <c r="H19" s="7">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>36697</v>
+        <v>778</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>524</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="M19" s="7">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>79978</v>
+        <v>3625</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>53455</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>529</v>
+        <v>35</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>530</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="H20" s="7">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>55017</v>
+        <v>993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>533</v>
+        <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="M20" s="7">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>108471</v>
+        <v>993</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,112 +7385,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7">
-        <v>700</v>
+        <v>48592</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>554</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>555</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>39634</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>557</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>558</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="N22" s="7">
-        <v>700</v>
+        <v>88226</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>560</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>561</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>20924</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>563</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>564</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>26260</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>566</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>567</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>47184</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>569</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>570</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>347</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
@@ -7448,13 +7499,13 @@
         <v>7727</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>542</v>
+        <v>573</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -7463,13 +7514,13 @@
         <v>5816</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>545</v>
+        <v>576</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>546</v>
+        <v>577</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -7478,115 +7529,115 @@
         <v>13543</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>547</v>
+        <v>578</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>548</v>
+        <v>579</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>549</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>20924</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>550</v>
+        <v>35</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>551</v>
+        <v>48</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="H25" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>26260</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>553</v>
+        <v>35</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>554</v>
+        <v>48</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="M25" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>47184</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>556</v>
+        <v>35</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>557</v>
+        <v>48</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>48592</v>
+        <v>700</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>559</v>
+        <v>454</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>560</v>
+        <v>35</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="H26" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>39634</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>562</v>
+        <v>35</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>563</v>
+        <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="M26" s="7">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>88226</v>
+        <v>700</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>566</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,112 +7693,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D28" s="7">
-        <v>670</v>
+        <v>54136</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>587</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="I28" s="7">
-        <v>628</v>
+        <v>56588</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>590</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="N28" s="7">
-        <v>1298</v>
+        <v>110724</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>308</v>
+        <v>592</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>593</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>572</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D29" s="7">
-        <v>1481</v>
+        <v>35677</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>595</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>596</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>573</v>
+        <v>253</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="I29" s="7">
-        <v>583</v>
+        <v>43896</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>598</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="M29" s="7">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="N29" s="7">
-        <v>2064</v>
+        <v>79573</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>57</v>
+        <v>600</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>13</v>
@@ -7756,13 +7807,13 @@
         <v>9465</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>385</v>
+        <v>51</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -7771,13 +7822,13 @@
         <v>5896</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -7786,115 +7837,115 @@
         <v>15361</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>582</v>
+        <v>237</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>35677</v>
+        <v>1481</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>584</v>
+        <v>337</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>585</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>586</v>
+        <v>608</v>
       </c>
       <c r="H31" s="7">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>43896</v>
+        <v>583</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>587</v>
+        <v>609</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>588</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="M31" s="7">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="N31" s="7">
-        <v>79573</v>
+        <v>2064</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>590</v>
+        <v>122</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C32" s="7">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>54136</v>
+        <v>670</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>593</v>
+        <v>547</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>594</v>
+        <v>35</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>595</v>
+        <v>204</v>
       </c>
       <c r="H32" s="7">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>56588</v>
+        <v>628</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>597</v>
+        <v>35</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="M32" s="7">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>110724</v>
+        <v>1298</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>599</v>
+        <v>342</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>600</v>
+        <v>35</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7956,106 +8007,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>5</v>
+        <v>261</v>
       </c>
       <c r="D34" s="7">
-        <v>3473</v>
+        <v>189416</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>105</v>
+        <v>616</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>379</v>
+        <v>617</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="H34" s="7">
-        <v>2</v>
+        <v>267</v>
       </c>
       <c r="I34" s="7">
-        <v>1621</v>
+        <v>188136</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>620</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="M34" s="7">
-        <v>7</v>
+        <v>528</v>
       </c>
       <c r="N34" s="7">
-        <v>5094</v>
+        <v>377552</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="D35" s="7">
-        <v>5078</v>
+        <v>131066</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>608</v>
+        <v>314</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>308</v>
+        <v>625</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="H35" s="7">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="I35" s="7">
-        <v>1361</v>
+        <v>133739</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>379</v>
+        <v>627</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>628</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="M35" s="7">
-        <v>9</v>
+        <v>371</v>
       </c>
       <c r="N35" s="7">
-        <v>6439</v>
+        <v>264805</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>416</v>
+        <v>630</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>40</v>
@@ -8064,13 +8115,13 @@
         <v>29567</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>614</v>
+        <v>504</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="H36" s="7">
         <v>46</v>
@@ -8079,13 +8130,13 @@
         <v>31070</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>616</v>
+        <v>190</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="M36" s="7">
         <v>86</v>
@@ -8094,115 +8145,115 @@
         <v>60638</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>620</v>
+        <v>323</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D37" s="7">
-        <v>131066</v>
+        <v>5078</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>325</v>
+        <v>639</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>622</v>
+        <v>119</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="H37" s="7">
-        <v>192</v>
+        <v>2</v>
       </c>
       <c r="I37" s="7">
-        <v>133739</v>
+        <v>1361</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>624</v>
+        <v>418</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>625</v>
+        <v>35</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>626</v>
+        <v>249</v>
       </c>
       <c r="M37" s="7">
-        <v>371</v>
+        <v>9</v>
       </c>
       <c r="N37" s="7">
-        <v>264805</v>
+        <v>6439</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>627</v>
+        <v>454</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>629</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C38" s="7">
-        <v>261</v>
+        <v>5</v>
       </c>
       <c r="D38" s="7">
-        <v>189416</v>
+        <v>3473</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>631</v>
+        <v>418</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="H38" s="7">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="I38" s="7">
-        <v>188136</v>
+        <v>1621</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>634</v>
+        <v>35</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>635</v>
+        <v>371</v>
       </c>
       <c r="M38" s="7">
-        <v>528</v>
+        <v>7</v>
       </c>
       <c r="N38" s="7">
-        <v>377552</v>
+        <v>5094</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>637</v>
+        <v>248</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>638</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8254,6 +8305,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A20-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A20-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4DE0C47-F543-49C3-BBBF-209878195972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFAA3EE0-DF29-4DF6-9187-6C06EDC0D7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E380370B-2E0B-4EC9-9B8D-40D8B80B4B72}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08B2591B-C754-4E0B-BAD9-33B50B154CD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="648">
   <si>
     <t>Menores según frecuencia de llevarse bien con sus profesores en 2007 (Tasa respuesta: 47,01%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,28 +76,28 @@
     <t>32,95%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
   </si>
   <si>
     <t>37,89%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
   </si>
   <si>
     <t>35,52%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>47,82%</t>
   </si>
   <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
   </si>
   <si>
     <t>47,54%</t>
   </si>
   <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
   </si>
   <si>
     <t>47,67%</t>
   </si>
   <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -136,10 +136,10 @@
     <t>13,36%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
   </si>
   <si>
     <t>9,45%</t>
@@ -148,16 +148,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>28,57%</t>
+    <t>29,8%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -166,19 +166,19 @@
     <t>5,87%</t>
   </si>
   <si>
-    <t>29,31%</t>
+    <t>26,85%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>26,0%</t>
+    <t>25,31%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>17,55%</t>
+    <t>19,26%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -199,1783 +199,1789 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>37,86%</t>
   </si>
   <si>
-    <t>48,33%</t>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
   </si>
   <si>
     <t>50,93%</t>
   </si>
   <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
   </si>
   <si>
     <t>43,46%</t>
   </si>
   <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>41,64%</t>
   </si>
   <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
   </si>
   <si>
     <t>36,79%</t>
   </si>
   <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
   </si>
   <si>
     <t>39,57%</t>
   </si>
   <si>
-    <t>46,7%</t>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
   </si>
   <si>
     <t>16,63%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con sus profesores en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de llevarse bien con sus profesores en 2016 (Tasa respuesta: 47,08%)</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con sus profesores en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de llevarse bien con sus profesores en 2015 (Tasa respuesta: 47,08%)</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>1,4%</t>
   </si>
 </sst>
 </file>
@@ -2387,7 +2393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4004CCF8-6E3C-403D-B77A-66385C24CB33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691FAA1C-B782-4A35-B560-494F1B1A0F91}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2822,10 +2828,10 @@
         <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -2834,13 +2840,13 @@
         <v>24947</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -2849,13 +2855,13 @@
         <v>49708</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2876,13 @@
         <v>27234</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -2885,13 +2891,13 @@
         <v>18022</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>68</v>
@@ -2900,13 +2906,13 @@
         <v>45255</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2927,13 @@
         <v>10876</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -2939,10 +2945,10 @@
         <v>50</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -2951,13 +2957,13 @@
         <v>15525</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2978,13 @@
         <v>2524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2987,13 +2993,13 @@
         <v>1362</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3002,13 +3008,13 @@
         <v>3886</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,7 +3035,7 @@
         <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3044,7 +3050,7 @@
         <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3059,7 +3065,7 @@
         <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,7 +3121,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3127,13 +3133,13 @@
         <v>33860</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -3142,13 +3148,13 @@
         <v>43320</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -3160,10 +3166,10 @@
         <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3184,13 @@
         <v>52256</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -3193,13 +3199,13 @@
         <v>47926</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>156</v>
@@ -3208,13 +3214,13 @@
         <v>100182</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,10 +3238,10 @@
         <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -3244,13 +3250,13 @@
         <v>8845</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -3259,13 +3265,13 @@
         <v>18764</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3286,13 @@
         <v>3201</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3295,13 +3301,13 @@
         <v>1974</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -3310,13 +3316,13 @@
         <v>5175</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,7 +3343,7 @@
         <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3346,13 +3352,13 @@
         <v>2582</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -3361,13 +3367,13 @@
         <v>2582</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,7 +3429,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3435,13 +3441,13 @@
         <v>30991</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H22" s="7">
         <v>54</v>
@@ -3450,13 +3456,13 @@
         <v>33439</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>103</v>
@@ -3465,13 +3471,13 @@
         <v>64430</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,13 +3492,13 @@
         <v>24580</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H23" s="7">
         <v>39</v>
@@ -3501,13 +3507,13 @@
         <v>23521</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>78</v>
@@ -3516,13 +3522,13 @@
         <v>48101</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3543,13 @@
         <v>8653</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -3552,13 +3558,13 @@
         <v>2369</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -3567,13 +3573,13 @@
         <v>11023</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3594,13 @@
         <v>1352</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3603,13 +3609,13 @@
         <v>1094</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -3618,13 +3624,13 @@
         <v>2446</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3645,13 @@
         <v>719</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3660,7 +3666,7 @@
         <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3669,13 +3675,13 @@
         <v>719</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,7 +3737,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3743,13 +3749,13 @@
         <v>32543</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>48</v>
@@ -3758,13 +3764,13 @@
         <v>36463</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>94</v>
@@ -3773,13 +3779,13 @@
         <v>69006</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3800,13 @@
         <v>50385</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>54</v>
@@ -3809,13 +3815,13 @@
         <v>42190</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="M29" s="7">
         <v>128</v>
@@ -3824,13 +3830,13 @@
         <v>92575</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3851,13 @@
         <v>13461</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -3860,13 +3866,13 @@
         <v>9720</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M30" s="7">
         <v>33</v>
@@ -3875,13 +3881,13 @@
         <v>23181</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3953,13 @@
         <v>644</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3962,13 +3968,13 @@
         <v>683</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3977,13 +3983,13 @@
         <v>1327</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4057,13 @@
         <v>126706</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H34" s="7">
         <v>214</v>
@@ -4066,13 +4072,13 @@
         <v>143867</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M34" s="7">
         <v>404</v>
@@ -4081,10 +4087,10 @@
         <v>270573</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>217</v>
@@ -4171,10 +4177,10 @@
         <v>230</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M36" s="7">
         <v>108</v>
@@ -4183,13 +4189,13 @@
         <v>71760</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4210,13 @@
         <v>9403</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H37" s="7">
         <v>9</v>
@@ -4219,13 +4225,13 @@
         <v>5909</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M37" s="7">
         <v>23</v>
@@ -4234,13 +4240,13 @@
         <v>15312</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4261,13 @@
         <v>1363</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H38" s="7">
         <v>5</v>
@@ -4270,13 +4276,13 @@
         <v>3266</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -4285,13 +4291,13 @@
         <v>4629</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,7 +4353,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4368,7 +4374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC4CBFC-6154-4B29-B961-40AEDC2269F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9494230-363C-4AA6-B5AA-4483AAE725E6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4385,7 +4391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4492,13 +4498,13 @@
         <v>10276</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4507,13 +4513,13 @@
         <v>5954</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4522,13 +4528,13 @@
         <v>16231</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4549,13 @@
         <v>4214</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4558,13 +4564,13 @@
         <v>4449</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -4573,13 +4579,13 @@
         <v>8663</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,7 +4606,7 @@
         <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4609,13 +4615,13 @@
         <v>1539</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -4624,13 +4630,13 @@
         <v>1539</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,7 +4657,7 @@
         <v>48</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4666,7 +4672,7 @@
         <v>48</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4681,7 +4687,7 @@
         <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,7 +4708,7 @@
         <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4717,7 +4723,7 @@
         <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4732,7 +4738,7 @@
         <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4806,13 @@
         <v>34576</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -4815,13 +4821,13 @@
         <v>35143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>279</v>
+        <v>29</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -4830,13 +4836,13 @@
         <v>69719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +4857,13 @@
         <v>20770</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -4866,13 +4872,13 @@
         <v>15974</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -4881,13 +4887,13 @@
         <v>36744</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,13 +4908,13 @@
         <v>1467</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -4917,13 +4923,13 @@
         <v>2566</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>164</v>
+        <v>298</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4932,13 +4938,13 @@
         <v>4032</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4959,13 @@
         <v>679</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>301</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4974,7 +4980,7 @@
         <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4983,13 +4989,13 @@
         <v>679</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +5010,13 @@
         <v>682</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>303</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5025,7 +5031,7 @@
         <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -5034,13 +5040,13 @@
         <v>683</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,7 +5102,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5108,13 +5114,13 @@
         <v>51712</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>90</v>
@@ -5123,13 +5129,13 @@
         <v>60048</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>167</v>
@@ -5138,13 +5144,13 @@
         <v>111760</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,13 +5165,13 @@
         <v>35284</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5174,13 +5180,13 @@
         <v>31986</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -5189,13 +5195,13 @@
         <v>67269</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,13 +5216,13 @@
         <v>6578</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -5225,13 +5231,13 @@
         <v>5124</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -5240,13 +5246,13 @@
         <v>11702</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5267,13 @@
         <v>2173</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>333</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>334</v>
+        <v>231</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5276,13 +5282,13 @@
         <v>675</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5291,13 +5297,13 @@
         <v>2848</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5318,13 @@
         <v>787</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5327,13 +5333,13 @@
         <v>609</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5342,13 +5348,13 @@
         <v>1396</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,7 +5410,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5416,13 +5422,13 @@
         <v>41112</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H22" s="7">
         <v>62</v>
@@ -5431,10 +5437,10 @@
         <v>40393</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>350</v>
@@ -5488,7 +5494,7 @@
         <v>358</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>359</v>
+        <v>176</v>
       </c>
       <c r="M23" s="7">
         <v>66</v>
@@ -5497,13 +5503,13 @@
         <v>41926</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,10 +5524,10 @@
         <v>3873</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>364</v>
@@ -5569,13 +5575,13 @@
         <v>1160</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>371</v>
+        <v>237</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -5584,13 +5590,13 @@
         <v>678</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5599,13 +5605,13 @@
         <v>1838</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5626,13 @@
         <v>1778</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5635,13 +5641,13 @@
         <v>1335</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -5650,13 +5656,13 @@
         <v>3113</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,7 +5718,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5724,13 +5730,13 @@
         <v>53732</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H28" s="7">
         <v>62</v>
@@ -5739,13 +5745,13 @@
         <v>48486</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M28" s="7">
         <v>137</v>
@@ -5754,10 +5760,10 @@
         <v>102218</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>391</v>
@@ -5793,10 +5799,10 @@
         <v>395</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M29" s="7">
         <v>81</v>
@@ -5805,13 +5811,13 @@
         <v>61372</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5832,13 @@
         <v>8499</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -5841,13 +5847,13 @@
         <v>6865</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>405</v>
+        <v>75</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -5856,13 +5862,13 @@
         <v>15364</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>409</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5883,13 @@
         <v>2339</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -5892,13 +5898,13 @@
         <v>1826</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -5907,13 +5913,13 @@
         <v>4165</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>205</v>
+        <v>412</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>45</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5934,13 @@
         <v>691</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5949,7 +5955,7 @@
         <v>48</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -5958,13 +5964,13 @@
         <v>691</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>419</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6038,13 @@
         <v>191408</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H34" s="7">
         <v>270</v>
@@ -6047,13 +6053,13 @@
         <v>190024</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M34" s="7">
         <v>547</v>
@@ -6062,13 +6068,13 @@
         <v>381433</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6089,13 @@
         <v>109090</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H35" s="7">
         <v>152</v>
@@ -6098,13 +6104,13 @@
         <v>106885</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M35" s="7">
         <v>313</v>
@@ -6113,13 +6119,13 @@
         <v>215975</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6140,13 @@
         <v>20417</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
@@ -6149,10 +6155,10 @@
         <v>19887</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>440</v>
+        <v>128</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>439</v>
@@ -6164,13 +6170,13 @@
         <v>40304</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,13 +6191,13 @@
         <v>6351</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -6200,13 +6206,13 @@
         <v>3179</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M37" s="7">
         <v>13</v>
@@ -6215,13 +6221,13 @@
         <v>9530</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>200</v>
+        <v>447</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>247</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,13 +6242,13 @@
         <v>3938</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -6269,10 +6275,10 @@
         <v>454</v>
       </c>
       <c r="P38" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,7 +6334,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -6349,7 +6355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9400BD1-2536-4AC8-B051-DDCE766F12E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7F0AC6-3A3D-4D80-91D0-0D247C6E67F8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6366,7 +6372,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6473,13 +6479,13 @@
         <v>8743</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -6488,13 +6494,13 @@
         <v>7255</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -6503,13 +6509,13 @@
         <v>15998</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,13 +6530,13 @@
         <v>5571</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6539,13 +6545,13 @@
         <v>3828</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -6554,13 +6560,13 @@
         <v>9400</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,7 +6587,7 @@
         <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6590,13 +6596,13 @@
         <v>2843</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6605,13 +6611,13 @@
         <v>2843</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>480</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>481</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,7 +6638,7 @@
         <v>48</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6647,7 +6653,7 @@
         <v>48</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6662,7 +6668,7 @@
         <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,7 +6689,7 @@
         <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6698,7 +6704,7 @@
         <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6713,7 +6719,7 @@
         <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,13 +6787,13 @@
         <v>24490</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -6796,13 +6802,13 @@
         <v>29642</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -6811,13 +6817,13 @@
         <v>54133</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,13 +6838,13 @@
         <v>25612</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -6847,13 +6853,13 @@
         <v>23057</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="M11" s="7">
         <v>66</v>
@@ -6862,13 +6868,13 @@
         <v>48670</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,13 +6889,13 @@
         <v>5631</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -6898,13 +6904,13 @@
         <v>3371</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>504</v>
+        <v>109</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>414</v>
+        <v>502</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -6913,13 +6919,13 @@
         <v>9003</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6934,13 +6940,13 @@
         <v>750</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6955,7 +6961,7 @@
         <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -6964,13 +6970,13 @@
         <v>750</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6985,13 +6991,13 @@
         <v>2103</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7006,7 +7012,7 @@
         <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -7015,13 +7021,13 @@
         <v>2103</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,7 +7083,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7092,10 +7098,10 @@
         <v>517</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H16" s="7">
         <v>82</v>
@@ -7104,13 +7110,13 @@
         <v>55017</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>253</v>
+        <v>521</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -7119,13 +7125,13 @@
         <v>108471</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,13 +7146,13 @@
         <v>43282</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -7155,13 +7161,13 @@
         <v>36697</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="M17" s="7">
         <v>120</v>
@@ -7170,13 +7176,13 @@
         <v>79978</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,13 +7197,13 @@
         <v>6743</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -7206,13 +7212,13 @@
         <v>13145</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -7221,13 +7227,13 @@
         <v>19888</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,13 +7248,13 @@
         <v>2847</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>335</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7257,13 +7263,13 @@
         <v>778</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -7272,13 +7278,13 @@
         <v>3625</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>547</v>
+        <v>205</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7299,7 +7305,7 @@
         <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7308,13 +7314,13 @@
         <v>993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7323,13 +7329,13 @@
         <v>993</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,7 +7391,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7397,13 +7403,13 @@
         <v>48592</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H22" s="7">
         <v>62</v>
@@ -7412,13 +7418,13 @@
         <v>39634</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M22" s="7">
         <v>132</v>
@@ -7427,13 +7433,13 @@
         <v>88226</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7448,7 +7454,7 @@
         <v>20924</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>563</v>
+        <v>42</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>564</v>
@@ -7517,10 +7523,10 @@
         <v>575</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -7529,13 +7535,13 @@
         <v>13543</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,7 +7562,7 @@
         <v>48</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7571,7 +7577,7 @@
         <v>48</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>582</v>
+        <v>455</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -7586,7 +7592,7 @@
         <v>48</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7607,7 +7613,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7622,7 +7628,7 @@
         <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>582</v>
+        <v>455</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -7631,13 +7637,13 @@
         <v>700</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,7 +7699,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7705,13 +7711,13 @@
         <v>54136</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>588</v>
+        <v>391</v>
       </c>
       <c r="H28" s="7">
         <v>73</v>
@@ -7720,13 +7726,13 @@
         <v>56588</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M28" s="7">
         <v>145</v>
@@ -7735,13 +7741,13 @@
         <v>110724</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7756,13 +7762,13 @@
         <v>35677</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>253</v>
+        <v>594</v>
       </c>
       <c r="H29" s="7">
         <v>58</v>
@@ -7771,13 +7777,13 @@
         <v>43896</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>597</v>
+        <v>356</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M29" s="7">
         <v>107</v>
@@ -7786,13 +7792,13 @@
         <v>79573</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7807,13 +7813,13 @@
         <v>9465</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -7825,10 +7831,10 @@
         <v>45</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>235</v>
+        <v>602</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -7837,13 +7843,13 @@
         <v>15361</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7858,13 +7864,13 @@
         <v>1481</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -7873,13 +7879,13 @@
         <v>583</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -7888,13 +7894,13 @@
         <v>2064</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7909,13 +7915,13 @@
         <v>670</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>547</v>
+        <v>407</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>204</v>
+        <v>612</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -7930,7 +7936,7 @@
         <v>35</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>614</v>
+        <v>117</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -7939,13 +7945,13 @@
         <v>1298</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>615</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,13 +8019,13 @@
         <v>189416</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>617</v>
+        <v>68</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H34" s="7">
         <v>267</v>
@@ -8028,13 +8034,13 @@
         <v>188136</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M34" s="7">
         <v>528</v>
@@ -8043,13 +8049,13 @@
         <v>377552</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8064,13 +8070,13 @@
         <v>131066</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H35" s="7">
         <v>192</v>
@@ -8079,13 +8085,13 @@
         <v>133739</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="M35" s="7">
         <v>371</v>
@@ -8094,13 +8100,13 @@
         <v>264805</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,13 +8121,13 @@
         <v>29567</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>633</v>
+        <v>303</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>504</v>
+        <v>630</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H36" s="7">
         <v>46</v>
@@ -8130,13 +8136,13 @@
         <v>31070</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>190</v>
+        <v>632</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="M36" s="7">
         <v>86</v>
@@ -8145,13 +8151,13 @@
         <v>60638</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,13 +8172,13 @@
         <v>5078</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>640</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -8181,13 +8187,13 @@
         <v>1361</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>249</v>
+        <v>640</v>
       </c>
       <c r="M37" s="7">
         <v>9</v>
@@ -8202,7 +8208,7 @@
         <v>641</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>581</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8220,7 +8226,7 @@
         <v>642</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>643</v>
@@ -8238,7 +8244,7 @@
         <v>35</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -8250,10 +8256,10 @@
         <v>645</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>248</v>
+        <v>646</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>245</v>
+        <v>647</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,7 +8315,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
